--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>war</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
@@ -79,9 +79,6 @@
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -91,106 +88,109 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>well</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>well</t>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
@@ -199,49 +199,37 @@
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>new</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -605,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,16 +683,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7307692307692307</v>
+        <v>0.76</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -792,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9545454545454546</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.708904109589041</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,37 +862,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C7">
+        <v>212</v>
+      </c>
+      <c r="D7">
+        <v>212</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L7">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7">
-        <v>0.9393939393939394</v>
-      </c>
-      <c r="L7">
-        <v>31</v>
-      </c>
-      <c r="M7">
-        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -924,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>0.8888888888888888</v>
@@ -974,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5128205128205128</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9">
         <v>0.875</v>
@@ -1045,16 +1033,16 @@
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8536585365853658</v>
+        <v>0.84375</v>
       </c>
       <c r="L10">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,16 +1083,16 @@
         <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.828125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3733333333333334</v>
+        <v>0.36</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3546511627906977</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C13">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D13">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8083333333333333</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,16 +1233,16 @@
         <v>133</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,38 +1262,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2857142857142857</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L15">
         <v>22</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>22</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>55</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>0.8028169014084507</v>
-      </c>
-      <c r="L15">
-        <v>114</v>
-      </c>
-      <c r="M15">
-        <v>114</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1316,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2111111111111111</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7916666666666666</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1746031746031746</v>
+        <v>0.09651474530831099</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,95 +1380,71 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="L17">
+        <v>38</v>
+      </c>
+      <c r="M17">
+        <v>38</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K17">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="K18">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L18">
+        <v>22</v>
+      </c>
+      <c r="M18">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.09946236559139784</v>
-      </c>
-      <c r="C18">
-        <v>37</v>
-      </c>
-      <c r="D18">
-        <v>38</v>
-      </c>
-      <c r="E18">
-        <v>0.03</v>
-      </c>
-      <c r="F18">
-        <v>0.97</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>335</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L18">
-        <v>39</v>
-      </c>
-      <c r="M18">
-        <v>39</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>0.7413793103448276</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.73125</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L20">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.7264150943396226</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L21">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M21">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1544,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.7021276595744681</v>
+        <v>0.73125</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1570,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6984126984126984</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1596,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1622,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.6808510638297872</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L25">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="M25">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1648,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1674,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.6449086161879896</v>
+        <v>0.62</v>
       </c>
       <c r="L27">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1700,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.6060606060606061</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1726,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1752,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.5882352941176471</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1778,21 +1742,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.5882352941176471</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L31">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1804,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.5813953488372093</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1830,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.5600000000000001</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1856,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.5322033898305085</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L34">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1882,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.5280898876404494</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L35">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="M35">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1908,47 +1872,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.4888888888888889</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M36">
         <v>22</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.4644351464435146</v>
+        <v>0.46875</v>
       </c>
       <c r="L37">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1960,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.4615384615384616</v>
+        <v>0.4686192468619247</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1986,15 +1950,15 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.453125</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L39">
         <v>29</v>
@@ -2012,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.4523809523809524</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2038,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.4358974358974359</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2064,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.410958904109589</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2090,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.3428571428571429</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2116,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>46</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.1244019138755981</v>
+        <v>0.09375</v>
       </c>
       <c r="L44">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2142,47 +2106,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.09813084112149532</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.09767441860465116</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2194,21 +2158,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>194</v>
+        <v>842</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.08413461538461539</v>
+        <v>0.04328523862375139</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2220,73 +2184,73 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>381</v>
+        <v>862</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.06040268456375839</v>
+        <v>0.04006163328197226</v>
       </c>
       <c r="L48">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>840</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.0581039755351682</v>
+        <v>0.03414405986903649</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>308</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.03551609322974473</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="L50">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2298,137 +2262,59 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>869</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.03230769230769231</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>629</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K52">
-        <v>0.0265282583621684</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K53">
-        <v>0.02382064455861747</v>
-      </c>
-      <c r="L53">
-        <v>51</v>
-      </c>
-      <c r="M53">
-        <v>53</v>
-      </c>
-      <c r="N53">
-        <v>0.96</v>
-      </c>
-      <c r="O53">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K54">
-        <v>0.01353965183752418</v>
-      </c>
-      <c r="L54">
-        <v>42</v>
-      </c>
-      <c r="M54">
-        <v>47</v>
-      </c>
-      <c r="N54">
-        <v>0.89</v>
-      </c>
-      <c r="O54">
-        <v>0.11</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K55">
-        <v>0.007210031347962382</v>
-      </c>
-      <c r="L55">
-        <v>23</v>
-      </c>
-      <c r="M55">
-        <v>34</v>
-      </c>
-      <c r="N55">
-        <v>0.68</v>
-      </c>
-      <c r="O55">
-        <v>0.32</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>3167</v>
+        <v>3171</v>
       </c>
     </row>
   </sheetData>
